--- a/data/dendogram_enanched.xlsx
+++ b/data/dendogram_enanched.xlsx
@@ -1,43 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
+  <si>
+    <t>n_points</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +71,68 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +182,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +270,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +326,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +344,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +352,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +384,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +397,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,3935 +420,3932 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>c1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>c2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>dist</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>n_points</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>121</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>180</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="5">
         <v>0.000441707052186491</v>
       </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4">
         <v>113</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>114</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="5">
         <v>0.0110013272461019</v>
       </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
         <v>42</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>43</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="5">
         <v>0.0150963130860999</v>
       </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>119</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>120</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="5">
         <v>0.0225587973682568</v>
       </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>199</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="5">
         <v>0.0341582911316736</v>
       </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="5">
         <v>0.0428614705047057</v>
       </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4">
         <v>50</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>51</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="5">
         <v>0.0744007896320104</v>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4">
         <v>57</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>58</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5">
         <v>0.0856408339814861</v>
       </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.08939805643693011</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="D10" s="5">
+        <v>0.0893980564369301</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4">
         <v>21</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>22</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="5">
         <v>0.0942579062494939</v>
       </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4">
         <v>62</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>63</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5">
         <v>0.0998160726808721</v>
       </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4">
         <v>71</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>73</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5">
         <v>0.121889815631359</v>
       </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>76</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5">
         <v>0.159805671729057</v>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>16</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5">
         <v>0.168695006847763</v>
       </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4">
         <v>53</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>237</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="5">
         <v>0.173806726486614</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4">
         <v>106</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4">
         <v>107</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="5">
         <v>0.17774475810146</v>
       </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="4">
         <v>59</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4">
         <v>238</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="5">
         <v>0.183924766914629</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="4">
         <v>35</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4">
         <v>36</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="5">
         <v>0.187870757823594</v>
       </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="4">
         <v>236</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4">
         <v>244</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="5">
         <v>0.189270397077676</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="4">
         <v>46</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4">
         <v>48</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5">
         <v>0.203297260075284</v>
       </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="4">
         <v>72</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4">
         <v>242</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="5">
         <v>0.210276330755099</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="4">
         <v>23</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4">
         <v>24</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="5">
         <v>0.214249736965352</v>
       </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="4">
         <v>67</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4">
         <v>68</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="5">
         <v>0.217325697123065</v>
       </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="4">
         <v>45</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4">
         <v>250</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="5">
         <v>0.220281990242869</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="4">
         <v>105</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4">
         <v>246</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="5">
         <v>0.221737479320649</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="4">
         <v>11</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="5">
         <v>0.221798794946161</v>
       </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="4">
         <v>249</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="4">
         <v>256</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="5">
         <v>0.223584830739462</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="4">
         <v>168</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="4">
         <v>169</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="5">
         <v>0.225755146353062</v>
       </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="4">
         <v>49</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="4">
         <v>254</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="5">
         <v>0.229232938278569</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="5">
         <v>0.23049212931049</v>
       </c>
-      <c r="E31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="4">
         <v>177</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="4">
         <v>178</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="5">
         <v>0.231355330414633</v>
       </c>
-      <c r="E32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="4">
         <v>47</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="4">
         <v>259</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="5">
         <v>0.236163005149076</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="4">
         <v>112</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="4">
         <v>232</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="5">
         <v>0.236568914943405</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="4">
         <v>26</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="4">
         <v>27</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="5">
         <v>0.236876293238802</v>
       </c>
-      <c r="E35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="4">
         <v>64</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="4">
         <v>241</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="5">
         <v>0.238507938259569</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="4">
         <v>99</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="4">
         <v>100</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="5">
         <v>0.24096791182122</v>
       </c>
-      <c r="E37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="4">
         <v>54</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="4">
         <v>55</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="5">
         <v>0.244137206997967</v>
       </c>
-      <c r="E38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="4">
         <v>66</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="4">
         <v>253</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="5">
         <v>0.250025968825314</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="4">
         <v>52</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="4">
         <v>267</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="5">
         <v>0.254431135251977</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="4">
         <v>262</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="4">
         <v>269</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="5">
         <v>0.256953531566072</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="4">
         <v>70</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="4">
         <v>251</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="5">
         <v>0.261480899568593</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="4">
         <v>34</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="4">
         <v>248</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="5">
         <v>0.261504622391774</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="4">
         <v>161</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="4">
         <v>162</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="5">
         <v>0.264460133268388</v>
       </c>
-      <c r="E44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="4">
         <v>101</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="4">
         <v>266</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="5">
         <v>0.264551258272203</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="4">
         <v>108</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="4">
         <v>255</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="5">
         <v>0.266191808617727</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="4">
         <v>40</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="4">
         <v>41</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47" s="5">
         <v>0.268676491612645</v>
       </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="4">
         <v>69</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="4">
         <v>268</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="5">
         <v>0.273604675335082</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="4">
         <v>257</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="4">
         <v>260</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="5">
         <v>0.275811295380765</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="4">
         <v>9</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="4">
         <v>235</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="5">
         <v>0.27652998301955</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="4">
         <v>38</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="4">
         <v>276</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="5">
         <v>0.27907246470553</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="4">
         <v>89</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="4">
         <v>90</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="5">
         <v>0.281041797446838</v>
       </c>
-      <c r="E52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="4">
         <v>171</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="4">
         <v>172</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="5">
         <v>0.285266901774527</v>
       </c>
-      <c r="E53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="4">
         <v>271</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="4">
         <v>277</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="5">
         <v>0.285983843726981</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="4">
         <v>37</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="4">
         <v>280</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="5">
         <v>0.286248625965974</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="4">
         <v>20</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="4">
         <v>240</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="5">
         <v>0.287103475513575</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="4">
         <v>245</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="4">
         <v>270</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="5">
         <v>0.291155704726887</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="4">
         <v>110</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="4">
         <v>275</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="5">
         <v>0.292166474413779</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="4">
         <v>278</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="4">
         <v>285</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="5">
         <v>0.294195994364664</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="4">
         <v>233</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="4">
         <v>286</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="5">
         <v>0.295139582993751</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="4">
         <v>116</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="4">
         <v>118</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="5">
         <v>0.306658117881781</v>
       </c>
-      <c r="E61" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="E61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="4">
         <v>252</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="4">
         <v>264</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="5">
         <v>0.314569302037045</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="4">
         <v>173</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="4">
         <v>282</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="5">
         <v>0.317000156568442</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="4">
         <v>86</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="4">
         <v>87</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="5">
         <v>0.317294527081893</v>
       </c>
-      <c r="E64" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="4">
         <v>130</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="4">
         <v>131</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="5">
         <v>0.323851072162843</v>
       </c>
-      <c r="E65" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="4">
         <v>142</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="4">
         <v>143</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="5">
         <v>0.324735356593736</v>
       </c>
-      <c r="E66" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="E66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="4">
         <v>102</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="4">
         <v>103</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="5">
         <v>0.327476304640986</v>
       </c>
-      <c r="E67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="4">
         <v>111</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="4">
         <v>287</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="5">
         <v>0.327497600955151</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="4">
         <v>4</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="4">
         <v>239</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="5">
         <v>0.330424004743755</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="4">
         <v>77</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="4">
         <v>243</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="5">
         <v>0.333166528880938</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="4">
         <v>263</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="4">
         <v>297</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="5">
         <v>0.335200628753575</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="4">
         <v>1</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="4">
         <v>298</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="5">
         <v>0.338474038926559</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="4">
         <v>78</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="4">
         <v>80</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="5">
         <v>0.340227265577708</v>
       </c>
-      <c r="E73" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="E73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>2</v>
-      </c>
-      <c r="C74" t="n">
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4">
         <v>301</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74" s="5">
         <v>0.340935773626842</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="4">
         <v>28</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="4">
         <v>291</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="5">
         <v>0.342954754301491</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="4">
         <v>174</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="4">
         <v>292</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76" s="5">
         <v>0.344919049317785</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+      <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="4">
         <v>60</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="4">
         <v>247</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="5">
         <v>0.346043509688556</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="4">
         <v>165</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="4">
         <v>166</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="5">
         <v>0.349897696790085</v>
       </c>
-      <c r="E78" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="E78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="4">
         <v>296</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="4">
         <v>300</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="5">
         <v>0.357960439699843</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+      <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="4">
         <v>81</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="4">
         <v>302</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="5">
         <v>0.367749237212657</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+      <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="4">
         <v>288</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="4">
         <v>304</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="5">
         <v>0.369586900928612</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+      <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="4">
         <v>83</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="4">
         <v>85</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="5">
         <v>0.376315443830148</v>
       </c>
-      <c r="E82" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="E82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="4">
         <v>299</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="4">
         <v>309</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="5">
         <v>0.382314440684123</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="4">
         <v>132</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="4">
         <v>133</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="5">
         <v>0.387317755735266</v>
       </c>
-      <c r="E84" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="4">
         <v>3</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="4">
         <v>303</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="5">
         <v>0.391098168793548</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="4">
         <v>284</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="4">
         <v>289</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="5">
         <v>0.397123275896699</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+      <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="4">
         <v>39</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="4">
         <v>315</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" s="5">
         <v>0.39877387235866</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+      <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="4">
         <v>140</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="4">
         <v>141</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="5">
         <v>0.401912087464353</v>
       </c>
-      <c r="E88" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="E88" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="4">
         <v>104</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="4">
         <v>308</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" s="5">
         <v>0.408885830271336</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="4">
         <v>91</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="4">
         <v>281</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="5">
         <v>0.414943487080956</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="4">
         <v>139</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="4">
         <v>317</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91" s="5">
         <v>0.415698945275658</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="4">
         <v>310</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="4">
         <v>314</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="5">
         <v>0.423451739329166</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+      <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="4">
         <v>175</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="4">
         <v>176</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93" s="5">
         <v>0.423606947831961</v>
       </c>
-      <c r="E93" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="E93" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+      <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="4">
         <v>167</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="4">
         <v>307</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="5">
         <v>0.427303080949482</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+      <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="4">
         <v>272</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="4">
         <v>316</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="5">
         <v>0.432405220337007</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+      <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="4">
         <v>151</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="4">
         <v>152</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="5">
         <v>0.443592559506495</v>
       </c>
-      <c r="E96" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="E96" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+      <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="4">
         <v>261</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="4">
         <v>322</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="5">
         <v>0.447553494079544</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+      <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="4">
         <v>115</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="4">
         <v>117</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="5">
         <v>0.45309780877699</v>
       </c>
-      <c r="E98" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="E98" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+      <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="4">
         <v>134</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="4">
         <v>313</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="5">
         <v>0.453543192152922</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+      <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="4">
         <v>318</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="4">
         <v>327</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100" s="5">
         <v>0.457087172056368</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+      <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="4">
         <v>306</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="4">
         <v>324</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="5">
         <v>0.457441751601076</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+      <c r="A102" s="2">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="4">
         <v>82</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="4">
         <v>311</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="5">
         <v>0.466156926802694</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+      <c r="A103" s="2">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="4">
         <v>265</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="4">
         <v>283</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103" s="5">
         <v>0.466596234088686</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+      <c r="A104" s="2">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="4">
         <v>25</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="4">
         <v>321</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="5">
         <v>0.468702028051563</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+      <c r="A105" s="2">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="4">
         <v>29</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="4">
         <v>333</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="5">
         <v>0.469337757283293</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+      <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="4">
         <v>312</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="4">
         <v>332</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="5">
         <v>0.473157817335442</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+      <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="4">
         <v>61</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="4">
         <v>335</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="5">
         <v>0.474251337547217</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+      <c r="A108" s="2">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="4">
         <v>179</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="4">
         <v>326</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="5">
         <v>0.474751738131011</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+      <c r="A109" s="2">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="4">
         <v>155</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="4">
         <v>156</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="5">
         <v>0.474877787955525</v>
       </c>
-      <c r="E109" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="E109" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+      <c r="A110" s="2">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="4">
         <v>305</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="4">
         <v>337</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="5">
         <v>0.476918531532253</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+      <c r="A111" s="2">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="4">
         <v>295</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="4">
         <v>320</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="5">
         <v>0.486738759176491</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+      <c r="A112" s="2">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="4">
         <v>94</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="4">
         <v>95</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="5">
         <v>0.492588971555129</v>
       </c>
-      <c r="E112" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="E112" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+      <c r="A113" s="2">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="4">
         <v>319</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="4">
         <v>334</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="5">
         <v>0.494606144034535</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+      <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="4">
         <v>5</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="4">
         <v>279</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="5">
         <v>0.496690278485389</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+      <c r="A115" s="2">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="4">
         <v>109</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="4">
         <v>329</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="5">
         <v>0.498113550668237</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+      <c r="A116" s="2">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="4">
         <v>31</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="4">
         <v>330</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="5">
         <v>0.498788958070312</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+      <c r="A117" s="2">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="4">
         <v>33</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="4">
         <v>345</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="5">
         <v>0.500447203627263</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+      <c r="A118" s="2">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="4">
         <v>122</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="4">
         <v>123</v>
       </c>
-      <c r="D118" t="n">
-        <v>0.5056623359778351</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="D118" s="5">
+        <v>0.505662335977835</v>
+      </c>
+      <c r="E118" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+      <c r="A119" s="2">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="4">
         <v>32</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="4">
         <v>346</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="5">
         <v>0.50738467152316</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+      <c r="A120" s="2">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="4">
         <v>231</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="4">
         <v>339</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="5">
         <v>0.507875818352948</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+      <c r="A121" s="2">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="4">
         <v>129</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="4">
         <v>294</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="5">
         <v>0.508135801725891</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+      <c r="A122" s="2">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="4">
         <v>342</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="4">
         <v>348</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="5">
         <v>0.5083141624996</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+      <c r="A123" s="2">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="4">
         <v>234</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="4">
         <v>290</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="5">
         <v>0.508502295886619</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+      <c r="A124" s="2">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="4">
         <v>30</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="4">
         <v>351</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="5">
         <v>0.508969640749338</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
+      <c r="A125" s="2">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="4">
         <v>56</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="4">
         <v>353</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="5">
         <v>0.511437665167451</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
+      <c r="A126" s="2">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="4">
         <v>343</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="4">
         <v>354</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="5">
         <v>0.51154692722522</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126" s="4">
         <v>61</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
+      <c r="A127" s="2">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="4">
         <v>258</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="4">
         <v>323</v>
       </c>
-      <c r="D127" t="n">
-        <v>0.5143687022512869</v>
-      </c>
-      <c r="E127" t="n">
+      <c r="D127" s="5">
+        <v>0.514368702251287</v>
+      </c>
+      <c r="E127" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
+      <c r="A128" s="2">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="4">
         <v>79</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="4">
         <v>336</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="5">
         <v>0.516827232188374</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
+      <c r="A129" s="2">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="4">
         <v>344</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="4">
         <v>352</v>
       </c>
-      <c r="D129" t="n">
-        <v>0.5195695356522591</v>
-      </c>
-      <c r="E129" t="n">
+      <c r="D129" s="5">
+        <v>0.519569535652259</v>
+      </c>
+      <c r="E129" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
+      <c r="A130" s="2">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="4">
         <v>226</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="4">
         <v>349</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="5">
         <v>0.532659381313156</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
+      <c r="A131" s="2">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="4">
         <v>97</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="4">
         <v>341</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="5">
         <v>0.533278192943041</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
+      <c r="A132" s="2">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="4">
         <v>163</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="4">
         <v>273</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="5">
         <v>0.533473481158165</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
+      <c r="A133" s="2">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="4">
         <v>205</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="4">
         <v>206</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="5">
         <v>0.533700207151346</v>
       </c>
-      <c r="E133" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="E133" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
+      <c r="A134" s="2">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="4">
         <v>153</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="4">
         <v>325</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="5">
         <v>0.536965496714597</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
+      <c r="A135" s="2">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="4">
         <v>347</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="4">
         <v>359</v>
       </c>
-      <c r="D135" t="n">
-        <v>0.5384523431186899</v>
-      </c>
-      <c r="E135" t="n">
+      <c r="D135" s="5">
+        <v>0.53845234311869</v>
+      </c>
+      <c r="E135" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
+      <c r="A136" s="2">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="4">
         <v>124</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="4">
         <v>364</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="5">
         <v>0.540209367077489</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
+      <c r="A137" s="2">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="4">
         <v>145</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="4">
         <v>146</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137" s="5">
         <v>0.542980822137041</v>
       </c>
-      <c r="E137" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="E137" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
+      <c r="A138" s="2">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="4">
         <v>144</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="4">
         <v>366</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138" s="5">
         <v>0.54628147989389</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
+      <c r="A139" s="2">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="4">
         <v>128</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="4">
         <v>350</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="5">
         <v>0.548406155913431</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
+      <c r="A140" s="2">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="4">
         <v>170</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="4">
         <v>365</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="5">
         <v>0.549960642094143</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
+      <c r="A141" s="2">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="4">
         <v>125</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="4">
         <v>369</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="5">
         <v>0.551873693964212</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
+      <c r="A142" s="2">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="4">
         <v>19</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="4">
         <v>355</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="5">
         <v>0.551948782603095</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
+      <c r="A143" s="2">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="4">
         <v>157</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="4">
         <v>338</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="5">
         <v>0.555093423132702</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
+      <c r="A144" s="2">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="4">
         <v>150</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="4">
         <v>363</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="5">
         <v>0.564173791774102</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
+      <c r="A145" s="2">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="4">
         <v>98</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" s="4">
         <v>274</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="5">
         <v>0.56678724073054</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
+      <c r="A146" s="2">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="4">
         <v>93</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="4">
         <v>360</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="5">
         <v>0.56723071922326</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
+      <c r="A147" s="2">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="4">
         <v>340</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="4">
         <v>367</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="5">
         <v>0.570164211494973</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
+      <c r="A148" s="2">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="4">
         <v>147</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" s="4">
         <v>376</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" s="5">
         <v>0.573302335345914</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
+      <c r="A149" s="2">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="4">
         <v>331</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" s="4">
         <v>357</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="5">
         <v>0.58244996361311</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
+      <c r="A150" s="2">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="4">
         <v>356</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="4">
         <v>361</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" s="5">
         <v>0.589895040432294</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
+      <c r="A151" s="2">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="4">
         <v>44</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" s="4">
         <v>371</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="5">
         <v>0.592853912584476</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
+      <c r="A152" s="2">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="4">
         <v>154</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" s="4">
         <v>373</v>
       </c>
-      <c r="D152" t="n">
-        <v>0.5937430470564879</v>
-      </c>
-      <c r="E152" t="n">
+      <c r="D152" s="5">
+        <v>0.593743047056488</v>
+      </c>
+      <c r="E152" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
+      <c r="A153" s="2">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="4">
         <v>160</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="4">
         <v>379</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="5">
         <v>0.598876054679947</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
+      <c r="A154" s="2">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="4">
         <v>328</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="4">
         <v>368</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="5">
         <v>0.60354831875114</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5">
+      <c r="A155" s="2">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="4">
         <v>138</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="4">
         <v>377</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="5">
         <v>0.607241022035803</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5">
+      <c r="A156" s="2">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="4">
         <v>148</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="4">
         <v>149</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156" s="5">
         <v>0.607683773396707</v>
       </c>
-      <c r="E156" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="E156" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5">
+      <c r="A157" s="2">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="4">
         <v>164</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" s="4">
         <v>382</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="5">
         <v>0.607722502508742</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5">
+      <c r="A158" s="2">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="4">
         <v>159</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="4">
         <v>386</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="5">
         <v>0.611321498475502</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5">
+      <c r="A159" s="2">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="4">
         <v>135</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" s="4">
         <v>383</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="5">
         <v>0.619122202964513</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5">
+      <c r="A160" s="2">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="4">
         <v>158</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" s="4">
         <v>372</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="5">
         <v>0.621621783595059</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5">
+      <c r="A161" s="2">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="4">
         <v>65</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" s="4">
         <v>378</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="5">
         <v>0.623984377179598</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5">
+      <c r="A162" s="2">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="4">
         <v>374</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" s="4">
         <v>375</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="5">
         <v>0.625986280378086</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5">
+      <c r="A163" s="2">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="4">
         <v>137</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="4">
         <v>384</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="5">
         <v>0.659932024389465</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5">
+      <c r="A164" s="2">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="4">
         <v>293</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" s="4">
         <v>390</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="5">
         <v>0.662538650293214</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5">
+      <c r="A165" s="2">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="4">
         <v>126</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" s="4">
         <v>370</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" s="5">
         <v>0.672958244551912</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5">
+      <c r="A166" s="2">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="4">
         <v>388</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166" s="4">
         <v>394</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" s="5">
         <v>0.674566840980026</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5">
+      <c r="A167" s="2">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="4">
         <v>220</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" s="4">
         <v>221</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="5">
         <v>0.674827227823647</v>
       </c>
-      <c r="E167" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="E167" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
+      <c r="A168" s="2">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="4">
         <v>192</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" s="4">
         <v>207</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="5">
         <v>0.684735107894428</v>
       </c>
-      <c r="E168" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="E168" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
+      <c r="A169" s="2">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="4">
         <v>358</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" s="4">
         <v>391</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="5">
         <v>0.685737623379819</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
+      <c r="A170" s="2">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" s="4">
         <v>204</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170" s="4">
         <v>397</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="5">
         <v>0.687523129840072</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
+      <c r="A171" s="2">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" s="4">
         <v>392</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" s="4">
         <v>395</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="5">
         <v>0.698837332225516</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
+      <c r="A172" s="2">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" s="4">
         <v>387</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172" s="4">
         <v>400</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="5">
         <v>0.699681116831667</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
+      <c r="A173" s="2">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="4">
         <v>190</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" s="4">
         <v>200</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="5">
         <v>0.709623682646647</v>
       </c>
-      <c r="E173" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="E173" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
+      <c r="A174" s="2">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" s="4">
         <v>389</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174" s="4">
         <v>401</v>
       </c>
-      <c r="D174" t="n">
-        <v>0.7125627414028179</v>
-      </c>
-      <c r="E174" t="n">
+      <c r="D174" s="5">
+        <v>0.712562741402818</v>
+      </c>
+      <c r="E174" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
+      <c r="A175" s="2">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" s="4">
         <v>88</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" s="4">
         <v>393</v>
       </c>
-      <c r="D175" t="n">
-        <v>0.7208456968814549</v>
-      </c>
-      <c r="E175" t="n">
+      <c r="D175" s="5">
+        <v>0.720845696881455</v>
+      </c>
+      <c r="E175" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
+      <c r="A176" s="2">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="4">
         <v>385</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176" s="4">
         <v>403</v>
       </c>
-      <c r="D176" t="n">
-        <v>0.7273148811649039</v>
-      </c>
-      <c r="E176" t="n">
+      <c r="D176" s="5">
+        <v>0.727314881164904</v>
+      </c>
+      <c r="E176" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
+      <c r="A177" s="2">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" s="4">
         <v>398</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177" s="4">
         <v>404</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="5">
         <v>0.732009324934863</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
+      <c r="A178" s="2">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" s="4">
         <v>127</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178" s="4">
         <v>405</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="5">
         <v>0.739778297741015</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
+      <c r="A179" s="2">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="4">
         <v>381</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" s="4">
         <v>407</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="5">
         <v>0.742133595131829</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
+      <c r="A180" s="2">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" s="4">
         <v>185</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180" s="4">
         <v>214</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="5">
         <v>0.743105694267706</v>
       </c>
-      <c r="E180" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="E180" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
+      <c r="A181" s="2">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" s="4">
         <v>74</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" s="4">
         <v>406</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="5">
         <v>0.74488602925889</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181" s="4">
         <v>54</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
+      <c r="A182" s="2">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" s="4">
         <v>212</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" s="4">
         <v>396</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="5">
         <v>0.755387745328358</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
+      <c r="A183" s="2">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="4">
         <v>15</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183" s="4">
         <v>380</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="5">
         <v>0.759771011137008</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
+      <c r="A184" s="2">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" s="4">
         <v>191</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184" s="4">
         <v>402</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="5">
         <v>0.789746986886708</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
+      <c r="A185" s="2">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" s="4">
         <v>136</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" s="4">
         <v>219</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="5">
         <v>0.795594287561085</v>
       </c>
-      <c r="E185" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="E185" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
+      <c r="A186" s="2">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="4">
         <v>92</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" s="4">
         <v>410</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="5">
         <v>0.811039778771021</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
+      <c r="A187" s="2">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" s="4">
         <v>408</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187" s="4">
         <v>414</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="5">
         <v>0.851184541681814</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
+      <c r="A188" s="2">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" s="4">
         <v>198</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188" s="4">
         <v>218</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="5">
         <v>0.853521576034561</v>
       </c>
-      <c r="E188" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="E188" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
+      <c r="A189" s="2">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" s="4">
         <v>186</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189" s="4">
         <v>189</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="5">
         <v>0.858980903379053</v>
       </c>
-      <c r="E189" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="E189" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
+      <c r="A190" s="2">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" s="4">
         <v>222</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190" s="4">
         <v>223</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="5">
         <v>0.864263818988234</v>
       </c>
-      <c r="E190" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="E190" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
+      <c r="A191" s="2">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" s="4">
         <v>193</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191" s="4">
         <v>215</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191" s="5">
         <v>0.879612982163634</v>
       </c>
-      <c r="E191" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="E191" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
+      <c r="A192" s="2">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" s="4">
         <v>187</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192" s="4">
         <v>197</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192" s="5">
         <v>0.89005085109585</v>
       </c>
-      <c r="E192" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="E192" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
+      <c r="A193" s="2">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" s="4">
         <v>181</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193" s="4">
         <v>194</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="5">
         <v>0.891038049053936</v>
       </c>
-      <c r="E193" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="E193" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
+      <c r="A194" s="2">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" s="4">
         <v>229</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194" s="4">
         <v>418</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="5">
         <v>0.902362972985333</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
+      <c r="A195" s="2">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" s="4">
         <v>182</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195" s="4">
         <v>417</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="5">
         <v>0.908523925542286</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
+      <c r="A196" s="2">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" s="4">
         <v>84</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196" s="4">
         <v>96</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="5">
         <v>0.910308611863298</v>
       </c>
-      <c r="E196" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="E196" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
+      <c r="A197" s="2">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" s="4">
         <v>409</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197" s="4">
         <v>425</v>
       </c>
-      <c r="D197" t="n">
-        <v>0.9154448612745389</v>
-      </c>
-      <c r="E197" t="n">
+      <c r="D197" s="5">
+        <v>0.915444861274539</v>
+      </c>
+      <c r="E197" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
+      <c r="A198" s="2">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" s="4">
         <v>216</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198" s="4">
         <v>421</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="5">
         <v>0.916388561137409</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
+      <c r="A199" s="2">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" s="4">
         <v>188</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199" s="4">
         <v>196</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="5">
         <v>0.919230655888188</v>
       </c>
-      <c r="E199" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="E199" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
+      <c r="A200" s="2">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" s="4">
         <v>225</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200" s="4">
         <v>230</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200" s="5">
         <v>0.927877460513896</v>
       </c>
-      <c r="E200" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="E200" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="19.5">
+      <c r="A201" s="2">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" s="4">
         <v>227</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" s="4">
         <v>429</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201" s="5">
         <v>0.930711227383764</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="19.5">
+      <c r="A202" s="2">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" s="4">
         <v>201</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202" s="4">
         <v>208</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202" s="5">
         <v>0.941687936402462</v>
       </c>
-      <c r="E202" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="E202" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="19.5">
+      <c r="A203" s="2">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" s="4">
         <v>224</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203" s="4">
         <v>420</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="5">
         <v>0.947272252885159</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="19.5">
+      <c r="A204" s="2">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" s="4">
         <v>228</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204" s="4">
         <v>419</v>
       </c>
-      <c r="D204" t="n">
-        <v>0.9512618667766189</v>
-      </c>
-      <c r="E204" t="n">
+      <c r="D204" s="5">
+        <v>0.951261866776619</v>
+      </c>
+      <c r="E204" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="19.5">
+      <c r="A205" s="2">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" s="4">
         <v>203</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205" s="4">
         <v>213</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="5">
         <v>0.958421051232108</v>
       </c>
-      <c r="E205" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="E205" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="19.5">
+      <c r="A206" s="2">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" s="4">
         <v>202</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206" s="4">
         <v>217</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206" s="5">
         <v>0.96029735746791</v>
       </c>
-      <c r="E206" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="E206" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="19.5">
+      <c r="A207" s="2">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" s="4">
         <v>210</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207" s="4">
         <v>435</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207" s="5">
         <v>0.962314477965124</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="19.5">
+      <c r="A208" s="2">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" s="4">
         <v>184</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208" s="4">
         <v>209</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="5">
         <v>0.972104222256353</v>
       </c>
-      <c r="E208" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="E208" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="19.5">
+      <c r="A209" s="2">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" s="4">
         <v>413</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209" s="4">
         <v>433</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" s="5">
         <v>0.979402986881291</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="19.5">
+      <c r="A210" s="2">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" s="4">
         <v>195</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210" s="4">
         <v>436</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="5">
         <v>0.981712741975409</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="19.5">
+      <c r="A211" s="2">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211" s="4">
         <v>411</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211" s="4">
         <v>427</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" s="5">
         <v>0.988908742642962</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="19.5">
+      <c r="A212" s="2">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" s="4">
         <v>432</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212" s="4">
         <v>438</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="5">
         <v>0.990703966224686</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="19.5">
+      <c r="A213" s="2">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" s="4">
         <v>183</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213" s="4">
         <v>211</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="5">
         <v>0.994325689620882</v>
       </c>
-      <c r="E213" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="E213" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="19.5">
+      <c r="A214" s="2">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" s="4">
         <v>412</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214" s="4">
         <v>415</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="5">
         <v>0.699512235002647</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="19.5">
+      <c r="A215" s="2">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" s="4">
         <v>426</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215" s="4">
         <v>443</v>
       </c>
-      <c r="D215" t="n">
-        <v>0.7421203415982049</v>
-      </c>
-      <c r="E215" t="n">
+      <c r="D215" s="5">
+        <v>0.742120341598205</v>
+      </c>
+      <c r="E215" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="19.5">
+      <c r="A216" s="2">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216" s="4">
         <v>431</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216" s="4">
         <v>444</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="5">
         <v>0.755390244568534</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216" s="4">
         <v>125</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="19.5">
+      <c r="A217" s="2">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" s="4">
         <v>399</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217" s="4">
         <v>441</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="5">
         <v>0.800469684916074</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="19.5">
+      <c r="A218" s="2">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" s="4">
         <v>416</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218" s="4">
         <v>430</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="5">
         <v>0.840015696821292</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="19.5">
+      <c r="A219" s="2">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" s="4">
         <v>422</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219" s="4">
         <v>447</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="5">
         <v>0.844366508788328</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="19.5">
+      <c r="A220" s="2">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" s="4">
         <v>442</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220" s="4">
         <v>448</v>
       </c>
-      <c r="D220" t="n">
-        <v>0.8753172635283269</v>
-      </c>
-      <c r="E220" t="n">
+      <c r="D220" s="5">
+        <v>0.875317263528327</v>
+      </c>
+      <c r="E220" s="4">
         <v>69</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="19.5">
+      <c r="A221" s="2">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221" s="4">
         <v>362</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221" s="4">
         <v>446</v>
       </c>
-      <c r="D221" t="n">
-        <v>0.8962387960118779</v>
-      </c>
-      <c r="E221" t="n">
+      <c r="D221" s="5">
+        <v>0.896238796011878</v>
+      </c>
+      <c r="E221" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="19.5">
+      <c r="A222" s="2">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" s="4">
         <v>424</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222" s="4">
         <v>449</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="5">
         <v>0.897343857499503</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222" s="4">
         <v>72</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="19.5">
+      <c r="A223" s="2">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" s="4">
         <v>440</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223" s="4">
         <v>450</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" s="5">
         <v>0.899422171953702</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="19.5">
+      <c r="A224" s="2">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" s="4">
         <v>428</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224" s="4">
         <v>445</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="5">
         <v>0.900943208299458</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224" s="4">
         <v>127</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="19.5">
+      <c r="A225" s="2">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225" s="4">
         <v>434</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225" s="4">
         <v>452</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="5">
         <v>0.903271230410521</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="19.5">
+      <c r="A226" s="2">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226" s="4">
         <v>453</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226" s="4">
         <v>454</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="5">
         <v>0.906722351023607</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226" s="4">
         <v>149</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="19.5">
+      <c r="A227" s="2">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227" s="4">
         <v>451</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227" s="4">
         <v>455</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="5">
         <v>0.908683480276775</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227" s="4">
         <v>221</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="19.5">
+      <c r="A228" s="2">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228" s="4">
         <v>439</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228" s="4">
         <v>456</v>
       </c>
-      <c r="D228" t="n">
-        <v>0.9188965718459911</v>
-      </c>
-      <c r="E228" t="n">
+      <c r="D228" s="5">
+        <v>0.918896571845991</v>
+      </c>
+      <c r="E228" s="4">
         <v>225</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="19.5">
+      <c r="A229" s="2">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229" s="4">
         <v>423</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229" s="4">
         <v>457</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229" s="5">
         <v>0.947909625484318</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229" s="4">
         <v>228</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="19.5">
+      <c r="A230" s="2">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230" s="4">
         <v>437</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230" s="4">
         <v>458</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="5">
         <v>0.954753924792854</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230" s="4">
         <v>230</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>